--- a/程序员客栈项目/因卓科技教育平台/需求梳理final/最终确认文档归档/因卓教育项目计划_对应_程序员客栈项目功能清单及报价单（因卓科技教育平台）修改版1.2_确认进行原型设计.xlsx
+++ b/程序员客栈项目/因卓科技教育平台/需求梳理final/最终确认文档归档/因卓教育项目计划_对应_程序员客栈项目功能清单及报价单（因卓科技教育平台）修改版1.2_确认进行原型设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="阶段拆分说明" sheetId="3" r:id="rId1"/>
@@ -303,6 +303,102 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <r>
+      <t>因卓教育阶段划分：
+阶段一</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>题库管理、学生管理、班级管理、作业管理、试卷管理、教师管理
+阶段二</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>条形码生成、试卷管理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>试卷列表、组卷</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>答题卡编辑、试卷审阅、学情分析、所有涉及到消息推送和消息列表的地方</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>原型设计(阶段2)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -525,102 +621,6 @@
   </si>
   <si>
     <t>测试(阶段2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>因卓教育阶段划分：
-阶段一</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>题库管理、学生管理、班级管理、作业管理、试卷管理、教师管理
-阶段二</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>条形码生成、试卷管理</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>试卷列表、组卷</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>答题卡编辑、试卷审阅、学情分析、所有涉及到消息推送和消息列表的地方</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -834,25 +834,25 @@
                   <c:v>42967</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42986</c:v>
+                  <c:v>42885</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43007</c:v>
+                  <c:v>42921</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43039</c:v>
+                  <c:v>42993</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43039</c:v>
+                  <c:v>42993</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43039</c:v>
+                  <c:v>42993</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43007</c:v>
+                  <c:v>42993</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43091</c:v>
+                  <c:v>43056</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2192,14 +2192,14 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="2" max="2" width="90.125" customWidth="1"/>
+    <col min="2" max="2" width="90.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:2" ht="81">
+    <row r="4" spans="2:2" ht="81.599999999999994">
       <c r="B4" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -2213,16 +2213,16 @@
   <dimension ref="A2:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="23.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.19921875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5">
@@ -2379,10 +2379,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10" s="5">
-        <v>42986</v>
+        <v>42885</v>
       </c>
       <c r="C10" s="6">
         <f>8.365+3.69</f>
@@ -2394,15 +2394,15 @@
       </c>
       <c r="E10" s="5">
         <f t="shared" si="1"/>
-        <v>43004</v>
+        <v>42903</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" s="5">
-        <v>43007</v>
+        <v>42921</v>
       </c>
       <c r="C11" s="6">
         <f>11.75+8.125</f>
@@ -2414,15 +2414,15 @@
       </c>
       <c r="E11" s="5">
         <f t="shared" si="1"/>
-        <v>43036</v>
+        <v>42950</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12" s="5">
-        <v>43039</v>
+        <v>42993</v>
       </c>
       <c r="C12" s="6">
         <v>33</v>
@@ -2433,15 +2433,15 @@
       </c>
       <c r="E12" s="5">
         <f t="shared" si="1"/>
-        <v>43088</v>
+        <v>43042</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13" s="5">
-        <v>43039</v>
+        <v>42993</v>
       </c>
       <c r="C13" s="6">
         <v>33</v>
@@ -2452,15 +2452,15 @@
       </c>
       <c r="E13" s="5">
         <f t="shared" si="1"/>
-        <v>43088</v>
+        <v>43042</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14" s="5">
-        <v>43039</v>
+        <v>42993</v>
       </c>
       <c r="C14" s="6">
         <v>28.626000000000001</v>
@@ -2471,15 +2471,15 @@
       </c>
       <c r="E14" s="5">
         <f t="shared" si="1"/>
-        <v>43081</v>
+        <v>43035</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15" s="5">
-        <v>43007</v>
+        <v>42993</v>
       </c>
       <c r="C15" s="6">
         <v>40.130000000000003</v>
@@ -2490,15 +2490,15 @@
       </c>
       <c r="E15" s="5">
         <f t="shared" si="1"/>
-        <v>43067</v>
+        <v>43053</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16" s="5">
-        <v>43091</v>
+        <v>43056</v>
       </c>
       <c r="C16" s="6">
         <v>11.00653</v>
@@ -2509,7 +2509,7 @@
       </c>
       <c r="E16" s="5">
         <f t="shared" si="1"/>
-        <v>43107</v>
+        <v>43072</v>
       </c>
     </row>
   </sheetData>
@@ -2523,11 +2523,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="V30" sqref="V30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
